--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -185,175 +185,28 @@
     <t>Active</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>{StationName  string xlsx:"Station_Name" validate:"required" 16 [1] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_BS  string xlsx:"StationName_en_BS" 32 [2] false}</t>
-  </si>
-  <si>
-    <t>{StationName_zh_CN  string xlsx:"StationName_zh_CN" 48 [3] false}</t>
-  </si>
-  <si>
-    <t>{StationName_zh_HK  string xlsx:"StationName_zh_HK" 64 [4] false}</t>
-  </si>
-  <si>
-    <t>{StationName_zh_TW  string xlsx:"StationName_zh_TW" 80 [5] false}</t>
-  </si>
-  <si>
-    <t>{StationName_ko_KR  string xlsx:"StationName_ko_KR" 96 [6] false}</t>
-  </si>
-  <si>
-    <t>{StationName_th_TH  string xlsx:"StationName_th_TH" 112 [7] false}</t>
-  </si>
-  <si>
-    <t>{StationName_vi_VN  string xlsx:"StationName_vi_VN" 128 [8] false}</t>
-  </si>
-  <si>
-    <t>{StationName_id_ID  string xlsx:"StationName_id_ID" 144 [9] false}</t>
-  </si>
-  <si>
-    <t>{StationName_ja_JP  string xlsx:"StationName_ja_JP" 160 [10] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_US  string xlsx:"StationName_en_US" 176 [11] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_AU  string xlsx:"StationName_en_AU" 192 [12] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_NZ  string xlsx:"StationName_en_NZ" 208 [13] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_GB  string xlsx:"StationName_en_GB" 224 [14] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_SG  string xlsx:"StationName_en_SG" 240 [15] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_IN  string xlsx:"StationName_en_IN" 256 [16] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_CA  string xlsx:"StationName_en_CA" 272 [17] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_HK  string xlsx:"StationName_en_HK" 288 [18] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_PH  string xlsx:"StationName_en_PH" 304 [19] false}</t>
-  </si>
-  <si>
-    <t>{StationName_en_MY  string xlsx:"StationName_en_MY" 320 [20] false}</t>
-  </si>
-  <si>
-    <t>{StationName_fr_FR  string xlsx:"StationName_fr_FR" 336 [21] false}</t>
-  </si>
-  <si>
-    <t>{StationName_es_ES  string xlsx:"StationName_es_ES" 352 [22] false}</t>
-  </si>
-  <si>
-    <t>{StationName_de_DE  string xlsx:"StationName_de_DE" 368 [23] false}</t>
-  </si>
-  <si>
-    <t>{StationName_it_IT  string xlsx:"StationName_it_IT" 384 [24] false}</t>
-  </si>
-  <si>
-    <t>{StationName_ru_RU  string xlsx:"StationName_ru_RU" 400 [25] false}</t>
-  </si>
-  <si>
-    <t>{Address  string xlsx:"Address" validate:"required_with=Longitude Latitude" 416 [26] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_BS  string xlsx:"Address_en_BS" 432 [27] false}</t>
-  </si>
-  <si>
-    <t>{Address_zh_CN  string xlsx:"Address_zh_CN" 448 [28] false}</t>
-  </si>
-  <si>
-    <t>{Address_zh_HK  string xlsx:"Address_zh_HK" 464 [29] false}</t>
-  </si>
-  <si>
-    <t>{Address_zh_TW  string xlsx:"Address_zh_TW" 480 [30] false}</t>
-  </si>
-  <si>
-    <t>{Address_ko_KR  string xlsx:"Address_ko_KR" 496 [31] false}</t>
-  </si>
-  <si>
-    <t>{Address_th_TH  string xlsx:"Address_th_TH" 512 [32] false}</t>
-  </si>
-  <si>
-    <t>{Address_vi_VN  string xlsx:"Address_vi_VN" 528 [33] false}</t>
-  </si>
-  <si>
-    <t>{Address_id_ID  string xlsx:"Address_id_ID" 544 [34] false}</t>
-  </si>
-  <si>
-    <t>{Address_ja_JP  string xlsx:"Address_ja_JP" 560 [35] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_US  string xlsx:"Address_en_US" 576 [36] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_AU  string xlsx:"Address_en_AU" 592 [37] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_NZ  string xlsx:"Address_en_NZ" 608 [38] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_GB  string xlsx:"Address_en_GB" 624 [39] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_SG  string xlsx:"Address_en_SG" 640 [40] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_IN  string xlsx:"Address_en_IN" 656 [41] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_CA  string xlsx:"Address_en_CA" 672 [42] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_HK  string xlsx:"Address_en_HK" 688 [43] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_PH  string xlsx:"Address_en_PH" 704 [44] false}</t>
-  </si>
-  <si>
-    <t>{Address_en_MY  string xlsx:"Address_en_MY" 720 [45] false}</t>
-  </si>
-  <si>
-    <t>{Address_fr_FR  string xlsx:"Address_fr_FR" 736 [46] false}</t>
-  </si>
-  <si>
-    <t>{Address_es_ES  string xlsx:"Address_es_ES" 752 [47] false}</t>
-  </si>
-  <si>
-    <t>{Address_de_DE  string xlsx:"Address_de_DE" 768 [48] false}</t>
-  </si>
-  <si>
-    <t>{Address_it_IT  string xlsx:"Address_it_IT" 784 [49] false}</t>
-  </si>
-  <si>
-    <t>{Address_ru_RU  string xlsx:"Address_ru_RU" 800 [50] false}</t>
-  </si>
-  <si>
-    <t>{Type  string xlsx:"Type" validate:"required" 816 [51] false}</t>
-  </si>
-  <si>
-    <t>{ProductType  string xlsx:"Product_Type" 832 [52] false}</t>
-  </si>
-  <si>
-    <t>{AggregatorPositionCode  string xlsx:"Aggregator_Position_Code" validate:"required" 848 [53] false}</t>
-  </si>
-  <si>
-    <t>{AggregatorName  string xlsx:"Aggregator_Name" validate:"required" 864 [54] false}</t>
-  </si>
-  <si>
-    <t>{Active  int xlsx:"Active" validate:"oneof=0 1" 880 [55] false}</t>
-  </si>
-  <si>
-    <t>{PoiExtend  main.PoiExtend  888 [56] true}</t>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>AreaID</t>
+  </si>
+  <si>
+    <t>PlaceID</t>
+  </si>
+  <si>
+    <t>Post_Code</t>
+  </si>
+  <si>
+    <t>Platform_Area_ID</t>
+  </si>
+  <si>
+    <t>Geo_Hash</t>
   </si>
 </sst>
 </file>
@@ -851,179 +704,32 @@
       <c r="CG1" t="s">
         <v>56</v>
       </c>
+      <c r="CH1" t="s">
+        <v>57</v>
+      </c>
+      <c r="CI1" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ1" t="s">
+        <v>59</v>
+      </c>
+      <c r="CK1" t="s">
+        <v>60</v>
+      </c>
+      <c r="CL1" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM1" t="s">
+        <v>62</v>
+      </c>
+      <c r="CN1" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>73</v>
-      </c>
-      <c r="T2" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>76</v>
-      </c>
-      <c r="W2" t="s">
-        <v>77</v>
-      </c>
-      <c r="X2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>80</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>82</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>83</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>84</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>85</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>86</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>87</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>90</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BO2" t="s">
-        <v>94</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BQ2" t="s">
-        <v>96</v>
-      </c>
-      <c r="BR2" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS2" t="s">
-        <v>98</v>
-      </c>
-      <c r="BT2" t="s">
-        <v>99</v>
-      </c>
-      <c r="BU2" t="s">
-        <v>100</v>
-      </c>
-      <c r="BV2" t="s">
-        <v>101</v>
-      </c>
-      <c r="BW2" t="s">
-        <v>102</v>
-      </c>
-      <c r="BX2" t="s">
-        <v>103</v>
-      </c>
-      <c r="BY2" t="s">
-        <v>104</v>
-      </c>
-      <c r="BZ2" t="s">
-        <v>105</v>
-      </c>
-      <c r="CB2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CC2" t="s">
-        <v>107</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>108</v>
-      </c>
-      <c r="CE2" t="s">
-        <v>109</v>
-      </c>
-      <c r="CF2" t="s">
-        <v>110</v>
-      </c>
-      <c r="CG2" t="s">
-        <v>111</v>
-      </c>
-      <c r="CH2" t="s">
-        <v>112</v>
-      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -15,10 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
-  <si>
-    <t>Id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Station_Name</t>
   </si>
@@ -207,6 +204,21 @@
   </si>
   <si>
     <t>Geo_Hash</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>123.999000</t>
+  </si>
+  <si>
+    <t>52.222000</t>
   </si>
 </sst>
 </file>
@@ -611,124 +623,310 @@
       <c r="Z1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
       <c r="BB1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="BC1" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="BD1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="BE1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="BF1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="BG1" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="BH1" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="BI1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="BJ1" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="BK1" t="s">
-        <v>35</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BM1" t="s">
-        <v>37</v>
-      </c>
-      <c r="BN1" t="s">
-        <v>38</v>
-      </c>
-      <c r="BO1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BP1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BQ1" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>42</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>43</v>
-      </c>
-      <c r="BT1" t="s">
-        <v>44</v>
-      </c>
-      <c r="BU1" t="s">
-        <v>45</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>46</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>47</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>49</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>50</v>
-      </c>
-      <c r="CB1" t="s">
-        <v>51</v>
-      </c>
-      <c r="CC1" t="s">
-        <v>52</v>
-      </c>
-      <c r="CD1" t="s">
-        <v>53</v>
-      </c>
-      <c r="CE1" t="s">
-        <v>54</v>
-      </c>
-      <c r="CF1" t="s">
-        <v>55</v>
-      </c>
-      <c r="CG1" t="s">
-        <v>56</v>
-      </c>
-      <c r="CH1" t="s">
-        <v>57</v>
-      </c>
-      <c r="CI1" t="s">
-        <v>58</v>
-      </c>
-      <c r="CJ1" t="s">
-        <v>59</v>
-      </c>
-      <c r="CK1" t="s">
-        <v>60</v>
-      </c>
-      <c r="CL1" t="s">
-        <v>61</v>
-      </c>
-      <c r="CM1" t="s">
         <v>62</v>
-      </c>
-      <c r="CN1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2">
-      <c r="B2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" t="s">
+        <v>63</v>
+      </c>
+      <c r="S2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T2" t="s">
+        <v>63</v>
+      </c>
+      <c r="U2" t="s">
+        <v>63</v>
+      </c>
+      <c r="V2" t="s">
+        <v>63</v>
+      </c>
+      <c r="W2" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>66</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BI2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ2" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK2" t="s">
+        <v>65</v>
+      </c>
+      <c r="BL2" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>Id</t>
+  </si>
   <si>
     <t>Station_Name</t>
   </si>
@@ -50,33 +53,6 @@
     <t>StationName_en_US</t>
   </si>
   <si>
-    <t>StationName_en_AU</t>
-  </si>
-  <si>
-    <t>StationName_en_NZ</t>
-  </si>
-  <si>
-    <t>StationName_en_GB</t>
-  </si>
-  <si>
-    <t>StationName_en_SG</t>
-  </si>
-  <si>
-    <t>StationName_en_IN</t>
-  </si>
-  <si>
-    <t>StationName_en_CA</t>
-  </si>
-  <si>
-    <t>StationName_en_HK</t>
-  </si>
-  <si>
-    <t>StationName_en_PH</t>
-  </si>
-  <si>
-    <t>StationName_en_MY</t>
-  </si>
-  <si>
     <t>StationName_fr_FR</t>
   </si>
   <si>
@@ -95,76 +71,49 @@
     <t>Address</t>
   </si>
   <si>
-    <t>Address_en_BS</t>
-  </si>
-  <si>
-    <t>Address_zh_CN</t>
-  </si>
-  <si>
-    <t>Address_zh_HK</t>
-  </si>
-  <si>
-    <t>Address_zh_TW</t>
-  </si>
-  <si>
-    <t>Address_ko_KR</t>
-  </si>
-  <si>
-    <t>Address_th_TH</t>
-  </si>
-  <si>
-    <t>Address_vi_VN</t>
-  </si>
-  <si>
-    <t>Address_id_ID</t>
-  </si>
-  <si>
-    <t>Address_ja_JP</t>
-  </si>
-  <si>
-    <t>Address_en_US</t>
-  </si>
-  <si>
-    <t>Address_en_AU</t>
-  </si>
-  <si>
-    <t>Address_en_NZ</t>
-  </si>
-  <si>
-    <t>Address_en_GB</t>
-  </si>
-  <si>
-    <t>Address_en_SG</t>
-  </si>
-  <si>
-    <t>Address_en_IN</t>
-  </si>
-  <si>
-    <t>Address_en_CA</t>
-  </si>
-  <si>
-    <t>Address_en_HK</t>
-  </si>
-  <si>
-    <t>Address_en_PH</t>
-  </si>
-  <si>
-    <t>Address_en_MY</t>
-  </si>
-  <si>
-    <t>Address_fr_FR</t>
-  </si>
-  <si>
-    <t>Address_es_ES</t>
-  </si>
-  <si>
-    <t>Address_de_DE</t>
-  </si>
-  <si>
-    <t>Address_it_IT</t>
-  </si>
-  <si>
-    <t>Address_ru_RU</t>
+    <t>Address_en_BS  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_zh_CN  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_zh_HK  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_zh_TW  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_ko_KR  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_th_TH  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_vi_VN  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_id_ID  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_ja_JP  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_en_US  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_fr_FR  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_es_ES  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_de_DE  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_it_IT  mutillang:</t>
+  </si>
+  <si>
+    <t>Address_ru_RU  mutillang:</t>
   </si>
   <si>
     <t>Type</t>
@@ -683,250 +632,100 @@
       <c r="AT1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J2" t="s">
-        <v>63</v>
-      </c>
-      <c r="K2" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="X2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="Z2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AC2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AD2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AE2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AG2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AH2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AI2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AK2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AL2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AM2" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="AN2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="AO2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AP2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AQ2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AR2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AS2" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="AT2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>66</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>67</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BI2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>63</v>
-      </c>
-      <c r="BK2" t="s">
-        <v>65</v>
-      </c>
-      <c r="BL2" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
